--- a/sys_tdm/sys_tdm/static/excel_templates/modelo_impressao_ficha_postos_maquinas.xlsx
+++ b/sys_tdm/sys_tdm/static/excel_templates/modelo_impressao_ficha_postos_maquinas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasg\OneDrive\Ambiente de Trabalho\Lucas\Projetos\Tudemmad\sys_tdm\sys_tdm\static\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2502781F-ACA0-4D0E-BCE0-AB3BC8DAE068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FBC02-7C2A-4170-8664-2E9D594B0481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,28 +23,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Descrição!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Produção!$A$2:$E$133</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Ficha de Postos de Trabalho</t>
   </si>
@@ -132,12 +121,15 @@
   <si>
     <t>Máquina/Posto:</t>
   </si>
+  <si>
+    <t>o</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -189,77 +188,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -310,11 +238,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -325,40 +333,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,11 +774,12 @@
   <dimension ref="A3:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F50"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
@@ -776,302 +787,366 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="19"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="19"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="19"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="19"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="19"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="19"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="F46" s="10"/>
+      <c r="B46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="15"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="15"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="12"/>
+      <c r="B49" s="15"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
